--- a/Test Result.xlsx
+++ b/Test Result.xlsx
@@ -582,11 +582,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-399694304"/>
-        <c:axId val="-399693760"/>
+        <c:axId val="-1673882768"/>
+        <c:axId val="-1673884944"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-399694304"/>
+        <c:axId val="-1673882768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -645,7 +645,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-399693760"/>
+        <c:crossAx val="-1673884944"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -653,7 +653,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-399693760"/>
+        <c:axId val="-1673884944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="80"/>
@@ -698,7 +698,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-399694304"/>
+        <c:crossAx val="-1673882768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="5"/>
@@ -1084,11 +1084,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-399701920"/>
-        <c:axId val="-399696480"/>
+        <c:axId val="-1673889296"/>
+        <c:axId val="-1673888752"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-399701920"/>
+        <c:axId val="-1673889296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1131,7 +1131,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-399696480"/>
+        <c:crossAx val="-1673888752"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1139,7 +1139,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-399696480"/>
+        <c:axId val="-1673888752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="20"/>
@@ -1191,7 +1191,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-399701920"/>
+        <c:crossAx val="-1673889296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1210,6 +1210,631 @@
   <c:spPr>
     <a:solidFill>
       <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="3.325582221056915E-2"/>
+          <c:y val="0.11257473769584787"/>
+          <c:w val="0.95148229780330529"/>
+          <c:h val="0.83388690931566156"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Effect of p'!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>IterNum = 10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Effect of p'!$B$1:$L$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Effect of p'!$B$2:$L$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>37.799999999999997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>40.200000000000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>43.8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>47.6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>46.8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>53.2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>52.8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>55.4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>55.4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Effect of p'!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>IterNum = 1000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Effect of p'!$B$1:$L$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Effect of p'!$B$3:$L$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>64.599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>67.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>72.8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>77.400000000000006</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>75.2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>73.8</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>67.2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Effect of p'!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>IterNum = 2000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Effect of p'!$B$1:$L$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Effect of p'!$B$4:$L$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>73.599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>76.8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>76.2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>75.8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>78.2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>79.8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>79.2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>72.8</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>71.2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="-1526379168"/>
+        <c:axId val="-1526383520"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="-1526379168"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="240000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:glow rad="127000">
+                    <a:schemeClr val="bg1"/>
+                  </a:glow>
+                  <a:outerShdw blurRad="50800" dist="50800" dir="5400000" algn="ctr" rotWithShape="0">
+                    <a:schemeClr val="bg1"/>
+                  </a:outerShdw>
+                </a:effectLst>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1526383520"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-1526383520"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1526379168"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="4.5533278163330517E-3"/>
+          <c:y val="1.7560358547361314E-2"/>
+          <c:w val="0.98118123892161779"/>
+          <c:h val="6.9928152652256118E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
@@ -1320,6 +1945,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="239">
   <cs:axisTitle>
@@ -2340,6 +3005,527 @@
         <a:noFill/>
       </a:ln>
     </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="239">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="800" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="800" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -2401,6 +3587,41 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>657224</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>14286</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>295274</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="图表 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2699,7 +3920,7 @@
   <dimension ref="A1:X8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Y16" sqref="Y16"/>
+      <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3351,7 +4572,7 @@
   <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+      <selection activeCell="O25" sqref="O25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3546,6 +4767,7 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
